--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/graficoGulpease.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/graficoGulpease.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65BAD32-FA19-4FD5-B443-1FFCA65F947F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9BF4D6-7EA8-4984-BF92-7E6A356A5ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -102,13 +102,22 @@
   </si>
   <si>
     <t>VE_2020-12-22</t>
+  </si>
+  <si>
+    <t>Glossario</t>
+  </si>
+  <si>
+    <t>VE_2021-01-05</t>
+  </si>
+  <si>
+    <t>VI_2020-12-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +149,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -167,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,17 +205,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -382,9 +410,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -401,9 +429,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -411,30 +442,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$3:$C$9</c:f>
+              <c:f>Foglio1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,9 +562,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -547,9 +581,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -557,10 +594,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$3:$D$9</c:f>
+              <c:f>Foglio1!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -653,9 +690,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -672,9 +709,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -682,10 +722,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$3:$E$9</c:f>
+              <c:f>Foglio1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -778,9 +818,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -797,9 +837,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -807,10 +850,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$3:$F$9</c:f>
+              <c:f>Foglio1!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -866,9 +909,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -885,9 +928,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -895,10 +941,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$G$3:$G$9</c:f>
+              <c:f>Foglio1!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -918,6 +964,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -961,9 +1010,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -980,9 +1029,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -990,10 +1042,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$H$3:$H$9</c:f>
+              <c:f>Foglio1!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -1013,6 +1065,9 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -2116,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,7 +2184,7 @@
     <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2152,12 +2207,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2169,12 +2224,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2186,12 +2241,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2203,12 +2258,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2220,12 +2275,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2236,32 +2291,40 @@
       <c r="H7" s="2">
         <v>80</v>
       </c>
+      <c r="J7" s="7">
+        <v>43</v>
+      </c>
+      <c r="N7" s="7">
+        <v>40</v>
+      </c>
+      <c r="O7" s="7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <f>_xlfn.CEILING.MATH(AVERAGE(C17:C21))</f>
-        <v>6</v>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>59</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>40</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <f>AVERAGE(C34:C35)</f>
-        <v>5</v>
+        <f>_xlfn.CEILING.MATH(AVERAGE(C34:C36))</f>
+        <v>60</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2273,10 +2336,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <f>_xlfn.CEILING.MATH(AVERAGE(C17:C22))</f>
+        <v>61</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F13" s="5"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2298,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2309,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2320,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2331,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2342,12 +2423,23 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>20</v>
@@ -2370,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2381,13 +2473,25 @@
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/graficoGulpease.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/graficoGulpease.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65BAD32-FA19-4FD5-B443-1FFCA65F947F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533DD5B-CD57-4242-897E-D16BE839F5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -103,12 +104,60 @@
   <si>
     <t>VE_2020-12-22</t>
   </si>
+  <si>
+    <t>Glossario</t>
+  </si>
+  <si>
+    <t>VE_2021-01-05</t>
+  </si>
+  <si>
+    <t>VI_2020-12-16</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Versione</t>
+  </si>
+  <si>
+    <t>Norme di progetto</t>
+  </si>
+  <si>
+    <t>INDICE GULPEASE PER DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Analisi dei requisiti</t>
+  </si>
+  <si>
+    <t>Andamento indice</t>
+  </si>
+  <si>
+    <t>Piano di progetto</t>
+  </si>
+  <si>
+    <t>Piano di qualifica</t>
+  </si>
+  <si>
+    <t>Studio di fattibilità</t>
+  </si>
+  <si>
+    <t>INDICE GULPEASE COMPLESSIVI</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +184,26 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,17 +259,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -382,9 +479,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -401,9 +498,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -411,30 +511,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$3:$C$9</c:f>
+              <c:f>Foglio1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,9 +631,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -547,9 +650,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -557,10 +663,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$3:$D$9</c:f>
+              <c:f>Foglio1!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -653,9 +759,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -672,9 +778,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -682,10 +791,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$3:$E$9</c:f>
+              <c:f>Foglio1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -778,9 +887,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -797,9 +906,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -807,10 +919,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$3:$F$9</c:f>
+              <c:f>Foglio1!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -866,9 +978,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -885,9 +997,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -895,10 +1010,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$G$3:$G$9</c:f>
+              <c:f>Foglio1!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -918,6 +1033,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -961,9 +1079,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$3:$B$9</c:f>
+              <c:f>Foglio1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -980,9 +1098,12 @@
                   <c:v>Studio di Fattibilità</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Verbali Esterni (Media)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
                 </c:pt>
               </c:strCache>
@@ -990,10 +1111,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$H$3:$H$9</c:f>
+              <c:f>Foglio1!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -1013,6 +1134,9 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -1222,7 +1346,4349 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Analisi dei Requisiti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38008971182885742"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$60:$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$60:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C5F-4853-9142-F7BF6937D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$60:$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$60:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D770-49DA-AD5D-22C8451F4836}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$60:$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$60:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D770-49DA-AD5D-22C8451F4836}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Norme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> di Progetto</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$82:$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-856D-441A-9657-30B63BD4223B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$82:$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-856D-441A-9657-30B63BD4223B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$82:$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$82:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-856D-441A-9657-30B63BD4223B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Piano di Progetto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$105:$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$105:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D79-439A-95B5-98EC2EF55704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$105:$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$105:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D79-439A-95B5-98EC2EF55704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$105:$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$105:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D79-439A-95B5-98EC2EF55704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Piano di Qualifica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$124:$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$124:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34BC-4DD9-B174-87228B7DDD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$124:$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34BC-4DD9-B174-87228B7DDD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$124:$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$124:$E$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34BC-4DD9-B174-87228B7DDD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Studio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> di Fattibilità</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$145:$B$147</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$145:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE68-4430-95FE-33EA6C5D5819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$145:$B$147</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$145:$D$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE68-4430-95FE-33EA6C5D5819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$145:$B$147</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$145:$E$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE68-4430-95FE-33EA6C5D5819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Glossario</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44655943117893127"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$167:$B$169</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$167:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-553B-4BC5-9D75-AF7DAA076605}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$167:$B$169</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$167:$D$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-553B-4BC5-9D75-AF7DAA076605}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$167:$B$169</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$167:$E$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-553B-4BC5-9D75-AF7DAA076605}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1778,20 +6244,3116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1811,6 +9373,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6FEC0C-902A-4FFD-A022-60AD20A9D2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7495E621-32D8-449D-B52D-882673FD03DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4646CBD-402E-4446-A7A0-33080978F7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF52809-D936-45C2-8D80-03BA81B1DED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFB0867-CE10-43B1-910F-B0411FE95D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8508899-352A-489A-9715-68CE364A73F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2116,20 +9906,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2152,12 +9946,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2169,12 +9963,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2186,12 +9980,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2202,13 +9996,20 @@
       <c r="H5" s="2">
         <v>80</v>
       </c>
+      <c r="L5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2220,12 +10021,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2236,32 +10037,37 @@
       <c r="H7" s="2">
         <v>80</v>
       </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <f>_xlfn.CEILING.MATH(AVERAGE(C17:C21))</f>
-        <v>6</v>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>59</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>40</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <f>AVERAGE(C34:C35)</f>
-        <v>5</v>
+        <f>_xlfn.CEILING.MATH(AVERAGE(C34:C36))</f>
+        <v>60</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2273,10 +10079,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <f>_xlfn.CEILING.MATH(AVERAGE(C17:C22))</f>
+        <v>61</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F13" s="5"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2298,7 +10122,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2309,7 +10133,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2320,7 +10144,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2331,7 +10155,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2342,13 +10166,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2365,29 +10200,486 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="53" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="E53" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="2">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2">
+        <v>40</v>
+      </c>
+      <c r="E60" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>40</v>
+      </c>
+      <c r="E61" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2">
+        <v>40</v>
+      </c>
+      <c r="E62" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2">
+        <v>63</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40</v>
+      </c>
+      <c r="E63" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="2">
+        <v>60</v>
+      </c>
+      <c r="D82" s="2">
+        <v>40</v>
+      </c>
+      <c r="E82" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="2">
+        <v>65</v>
+      </c>
+      <c r="D83" s="2">
+        <v>40</v>
+      </c>
+      <c r="E83" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="2">
+        <v>68</v>
+      </c>
+      <c r="D84" s="2">
+        <v>40</v>
+      </c>
+      <c r="E84" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="2">
+        <v>68</v>
+      </c>
+      <c r="D85" s="2">
+        <v>40</v>
+      </c>
+      <c r="E85" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="2">
+        <v>70</v>
+      </c>
+      <c r="D105" s="2">
+        <v>40</v>
+      </c>
+      <c r="E105" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="2">
+        <v>65</v>
+      </c>
+      <c r="D106" s="2">
+        <v>40</v>
+      </c>
+      <c r="E106" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="2">
+        <v>69</v>
+      </c>
+      <c r="D107" s="2">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="2">
+        <v>64</v>
+      </c>
+      <c r="D124" s="2">
+        <v>40</v>
+      </c>
+      <c r="E124" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="2">
+        <v>70</v>
+      </c>
+      <c r="D125" s="2">
+        <v>40</v>
+      </c>
+      <c r="E125" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="2">
+        <v>70</v>
+      </c>
+      <c r="D126" s="2">
+        <v>40</v>
+      </c>
+      <c r="E126" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="2">
+        <v>46</v>
+      </c>
+      <c r="D145" s="2">
+        <v>40</v>
+      </c>
+      <c r="E145" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="2">
+        <v>58</v>
+      </c>
+      <c r="D146" s="2">
+        <v>40</v>
+      </c>
+      <c r="E146" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="2">
+        <v>63</v>
+      </c>
+      <c r="D147" s="2">
+        <v>40</v>
+      </c>
+      <c r="E147" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B167" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="2">
+        <v>60</v>
+      </c>
+      <c r="D167" s="2">
+        <v>40</v>
+      </c>
+      <c r="E167" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="2">
+        <v>59</v>
+      </c>
+      <c r="D168" s="2">
+        <v>40</v>
+      </c>
+      <c r="E168" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="2">
+        <v>59</v>
+      </c>
+      <c r="D169" s="2">
+        <v>40</v>
+      </c>
+      <c r="E169" s="2">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="L5:P5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
